--- a/medicine/Enfance/Françoise_Rachmühl/Françoise_Rachmühl.xlsx
+++ b/medicine/Enfance/Françoise_Rachmühl/Françoise_Rachmühl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Rachm%C3%BChl</t>
+          <t>Françoise_Rachmühl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francoise Rachmühl, née Françoise Mora le 25 octobre 1931 à Nancy, est une écrivaine, nouvelliste, romancière et conteuse française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Rachm%C3%BChl</t>
+          <t>Françoise_Rachmühl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est agrégée de lettres modernes. Après ses études, elle est devenue professeure de lettres modernes en collège et lycée, s'est installée en région parisienne[1]. Elle est devenue directrice de collection scolaire chez Hatier. Elle a ensuite animé des ateliers d'écriture, de contes et de poésie en milieu scolaire. Elle a publié pour la jeunesse une dizaine de recueils de contes de différents pays et des provinces de France[2],[3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est agrégée de lettres modernes. Après ses études, elle est devenue professeure de lettres modernes en collège et lycée, s'est installée en région parisienne. Elle est devenue directrice de collection scolaire chez Hatier. Elle a ensuite animé des ateliers d'écriture, de contes et de poésie en milieu scolaire. Elle a publié pour la jeunesse une dizaine de recueils de contes de différents pays et des provinces de France.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Rachm%C3%BChl</t>
+          <t>Françoise_Rachmühl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Commandeur de l'ordre des Palmes académiques, à titre exceptionnel (2022)[6]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeur de l'ordre des Palmes académiques, à titre exceptionnel (2022)</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Rachm%C3%BChl</t>
+          <t>Françoise_Rachmühl</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,16 +588,18 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle a écrit de nombreux ouvrages[7],[8] :
-Antigone la courageuse (2017)[9]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elle a écrit de nombreux ouvrages, :
+Antigone la courageuse (2017)
 Déméter la généreuse (2016)
 Héraclès le valeureux (2016)
-Héroïnes et héros de la mythologie grecque (2016)[10]
+Héroïnes et héros de la mythologie grecque (2016)
 Lancelot, le chevalier à la charrette (2014) avec Françoise Rachmühl comme Adaptateur
 Contes d'Irlande (2013)
-Dieux &amp; déesses de la mythologie grecque (2013)[11]
+Dieux &amp; déesses de la mythologie grecque (2013)
 13 histoires de vampires (2011)
 La Bible en 15 récits (2011)
 Suite pour Eurydice, et autres nouvelles (2010)
